--- a/doc/20180214_패키지별_CNN_실험결과_Xavier.xlsx
+++ b/doc/20180214_패키지별_CNN_실험결과_Xavier.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>PYTORCH-0.3</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -313,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,6 +353,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,8 +374,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -659,7 +665,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,16 +683,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -745,16 +751,16 @@
       <c r="G3" s="5">
         <v>97.429557799999998</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -778,41 +784,41 @@
       <c r="G4" s="7">
         <v>98.249244689999998</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="17"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="18"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -879,26 +885,26 @@
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -939,22 +945,22 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="20">
         <v>140.855975627899</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="20">
         <v>6119.6611387729599</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="20">
         <v>113.42036819458001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="20">
         <v>214.73259973526001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="20">
         <v>97.020820617675696</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -966,7 +972,7 @@
       <c r="J13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="13">
         <v>20</v>
       </c>
     </row>
@@ -974,22 +980,22 @@
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="20">
         <v>188.17472359999999</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="20">
         <v>3564.944364</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="20">
         <v>151.025105</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="20">
         <v>101.6053081</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="20">
         <v>95.787948610000001</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1001,18 +1007,32 @@
       <c r="J14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="20">
+        <v>136.8108742</v>
+      </c>
+      <c r="C15" s="20">
+        <v>697.02574489999995</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="20">
+        <v>229.27592279999999</v>
+      </c>
+      <c r="F15" s="20">
+        <v>98.175438170000007</v>
+      </c>
+      <c r="G15" s="20">
+        <v>90.606971740000006</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1027,30 +1047,74 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20">
+        <v>186.30523943900999</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2879.0884745121002</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21">
+        <v>144.68446278572</v>
+      </c>
+      <c r="F16" s="20">
+        <v>95.731787681579505</v>
+      </c>
+      <c r="G16" s="21">
+        <v>92.637260437011705</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="20">
+        <v>516.93214699999999</v>
+      </c>
+      <c r="C17" s="20">
+        <v>4380.4678729999996</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="20">
+        <v>470.76788829999998</v>
+      </c>
+      <c r="F17" s="20">
+        <v>156.34048060000001</v>
+      </c>
+      <c r="G17" s="20">
+        <v>93.872367859999997</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
